--- a/Drline/target/classes/com/data/inputData.xlsx
+++ b/Drline/target/classes/com/data/inputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="7485" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="19800" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -25917,7 +25917,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -26027,8 +26027,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -26118,8 +26118,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/Drline/target/classes/com/data/inputData.xlsx
+++ b/Drline/target/classes/com/data/inputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="7485" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="7485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -151,243 +151,246 @@
     <t>fullname</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>7:50 PM</t>
+  </si>
+  <si>
+    <t>8999100336</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>SearchPatient</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>MobNo</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Vijay Giri</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Take Rest</t>
+  </si>
+  <si>
+    <t>pulses</t>
+  </si>
+  <si>
+    <t>Systolic</t>
+  </si>
+  <si>
+    <t>diastolic</t>
+  </si>
+  <si>
+    <t>repositoryRate</t>
+  </si>
+  <si>
+    <t>temprature</t>
+  </si>
+  <si>
+    <t>medicineNeme</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>ConsultingCharge</t>
+  </si>
+  <si>
+    <t>Fever &amp; cold</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Cipla1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Narration</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>teas for patient and guest</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Speciality</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN </t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>4521452145</t>
+  </si>
+  <si>
+    <t>ksfhdkhhfdfd@gmail.com</t>
+  </si>
+  <si>
+    <t>431707</t>
+  </si>
+  <si>
+    <t>1000AM</t>
+  </si>
+  <si>
+    <t>0700PM</t>
+  </si>
+  <si>
+    <t>Medicine_Name</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>Company_Name</t>
+  </si>
+  <si>
+    <t>Buying_Price</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>TabletsinStrip</t>
+  </si>
+  <si>
+    <t>AvailableStock</t>
+  </si>
+  <si>
+    <t>MedicineType</t>
+  </si>
+  <si>
+    <t>AlertBalanceStock</t>
+  </si>
+  <si>
+    <t>LIpichol 500</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Farmatech</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>as per compony standerd</t>
+  </si>
+  <si>
+    <t>Saleable</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>7:50 PM</t>
-  </si>
-  <si>
-    <t>8999100336</t>
-  </si>
-  <si>
-    <t>vijay</t>
-  </si>
-  <si>
-    <t>SearchPatient</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>MobNo</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Vijay Giri</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>Take Rest</t>
-  </si>
-  <si>
-    <t>pulses</t>
-  </si>
-  <si>
-    <t>Systolic</t>
-  </si>
-  <si>
-    <t>diastolic</t>
-  </si>
-  <si>
-    <t>repositoryRate</t>
-  </si>
-  <si>
-    <t>temprature</t>
-  </si>
-  <si>
-    <t>medicineNeme</t>
-  </si>
-  <si>
-    <t>Dose</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>ConsultingCharge</t>
-  </si>
-  <si>
-    <t>Fever &amp; cold</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Cipla1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Narration</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>teas for patient and guest</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>Speciality</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIN </t>
-  </si>
-  <si>
-    <t>Starttime</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Receptionist</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>4521452145</t>
-  </si>
-  <si>
-    <t>ksfhdkhhfdfd@gmail.com</t>
-  </si>
-  <si>
-    <t>431707</t>
-  </si>
-  <si>
-    <t>1000AM</t>
-  </si>
-  <si>
-    <t>0700PM</t>
-  </si>
-  <si>
-    <t>Medicine_Name</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Company_Name</t>
-  </si>
-  <si>
-    <t>Buying_Price</t>
-  </si>
-  <si>
-    <t>MRP</t>
-  </si>
-  <si>
-    <t>TabletsinStrip</t>
-  </si>
-  <si>
-    <t>AvailableStock</t>
-  </si>
-  <si>
-    <t>MedicineType</t>
-  </si>
-  <si>
-    <t>AlertBalanceStock</t>
-  </si>
-  <si>
-    <t>LIpichol 500</t>
-  </si>
-  <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>Farmatech</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>as per compony standerd</t>
-  </si>
-  <si>
-    <t>Saleable</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -440,9 +443,6 @@
   </si>
   <si>
     <t>1234567896</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
   <si>
     <t>74</t>
@@ -3792,10 +3792,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3837,6 +3837,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3851,14 +3859,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3867,68 +3867,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3949,6 +3888,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -3964,14 +3964,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3994,54 +3994,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4055,6 +4007,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4084,7 +4066,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4120,24 +4120,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4157,6 +4139,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,6 +4188,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4203,35 +4238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4243,21 +4249,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4280,6 +4271,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -4290,13 +4290,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4308,130 +4308,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5003,16 +5003,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -5038,13 +5038,13 @@
         <v>72</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
         <v>59</v>
@@ -5053,7 +5053,7 @@
         <v>76</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -5079,22 +5079,22 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -5120,22 +5120,22 @@
         <v>72</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -5161,22 +5161,22 @@
         <v>72</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -5202,13 +5202,13 @@
         <v>72</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>59</v>
@@ -6807,7 +6807,7 @@
         <v>23</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
         <v>59</v>
@@ -6889,7 +6889,7 @@
         <v>23</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
         <v>59</v>
@@ -6930,7 +6930,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
         <v>59</v>
@@ -6971,7 +6971,7 @@
         <v>23</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G51" t="s">
         <v>59</v>
@@ -9273,7 +9273,7 @@
         <v>59</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>468</v>
@@ -9314,7 +9314,7 @@
         <v>59</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>470</v>
@@ -9355,7 +9355,7 @@
         <v>59</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>472</v>
@@ -9396,7 +9396,7 @@
         <v>59</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>474</v>
@@ -9437,7 +9437,7 @@
         <v>59</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>476</v>
@@ -11071,7 +11071,7 @@
         <v>23</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G151" t="s">
         <v>59</v>
@@ -11112,7 +11112,7 @@
         <v>23</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G152" t="s">
         <v>59</v>
@@ -11153,7 +11153,7 @@
         <v>23</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G153" t="s">
         <v>59</v>
@@ -11194,7 +11194,7 @@
         <v>23</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G154" t="s">
         <v>59</v>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G155" t="s">
         <v>59</v>
@@ -26027,8 +26027,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -26118,8 +26118,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
